--- a/src/main/java/org/example/statistics.xlsx
+++ b/src/main/java/org/example/statistics.xlsx
@@ -16,16 +16,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>idWorker</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
     <t>выполнено задач</t>
   </si>
   <si>
     <t>производительность</t>
+  </si>
+  <si>
+    <t>id работника</t>
+  </si>
+  <si>
+    <t>рабочий день</t>
   </si>
 </sst>
 </file>
@@ -281,27 +281,30 @@
   </sheetPr>
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="7.109375" customWidth="1"/>
-    <col min="3" max="3" width="18.77734375" customWidth="1"/>
-    <col min="4" max="4" width="20.44140625" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/java/org/example/statistics.xlsx
+++ b/src/main/java/org/example/statistics.xlsx
@@ -282,12 +282,12 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D4" sqref="A2:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="14.6640625" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="16.33203125" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="20.44140625" customWidth="1" collapsed="1"/>
